--- a/temp_FBA Rates.xlsx
+++ b/temp_FBA Rates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Last Mile Rates\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFA7656-0E83-476D-8A0A-62134AFE8449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA53FCA5-5BFC-4936-8087-A34BC41FEED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="799" xr2:uid="{2A934A6A-F337-4BE5-84D4-604AD1A76B7C}"/>
   </bookViews>
@@ -6126,7 +6126,7 @@
   <dimension ref="A1:P1211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
